--- a/table_functions.xlsx
+++ b/table_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Dropbox\MISC\finmodel basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6831E7-4E5D-436A-B50D-83136F1870DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E02940-1674-4BAE-8705-044AA9FD01E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B9C58128-572D-4803-BD27-A7B0712BCA66}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -668,20 +668,20 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" cm="1">
-        <f t="array" aca="1" ref="G3:J5" ca="1">getTableRow("Holidays",F2,G2)</f>
-        <v>2</v>
+        <f t="array" aca="1" ref="G3:J11" ca="1">getTableRow("Holidays",F2,G2)</f>
+        <v>1</v>
       </c>
       <c r="H3" t="str">
         <f ca="1"/>
-        <v>Lunar New Year</v>
+        <v>New Year</v>
       </c>
       <c r="I3" s="4">
         <f ca="1"/>
-        <v>43855</v>
+        <v>43831</v>
       </c>
       <c r="J3">
         <f ca="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -703,19 +703,19 @@
       </c>
       <c r="G4" s="5">
         <f ca="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4" t="str">
         <f ca="1"/>
-        <v>Easter</v>
+        <v>Valentine Day</v>
       </c>
       <c r="I4" s="4">
         <f ca="1"/>
-        <v>43933</v>
+        <v>43875</v>
       </c>
       <c r="J4">
         <f ca="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -737,19 +737,19 @@
       </c>
       <c r="G5" s="5">
         <f ca="1"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H5" t="str">
         <f ca="1"/>
-        <v>Christmas</v>
+        <v>St Patrick Day</v>
       </c>
       <c r="I5" s="4">
         <f ca="1"/>
-        <v>44189</v>
+        <v>43907</v>
       </c>
       <c r="J5">
         <f ca="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -769,8 +769,22 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="5">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="H6" t="str">
+        <f ca="1"/>
+        <v>Nowruz</v>
+      </c>
+      <c r="I6" s="4">
+        <f ca="1"/>
+        <v>43910</v>
+      </c>
+      <c r="J6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -789,8 +803,22 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="5">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="H7" t="str">
+        <f ca="1"/>
+        <v>May Day</v>
+      </c>
+      <c r="I7" s="4">
+        <f ca="1"/>
+        <v>43952</v>
+      </c>
+      <c r="J7">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -809,8 +837,22 @@
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="5">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="H8" t="str">
+        <f ca="1"/>
+        <v>Eid Al Fitr</v>
+      </c>
+      <c r="I8" s="4">
+        <f ca="1"/>
+        <v>43974</v>
+      </c>
+      <c r="J8">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -829,8 +871,22 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="5">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="H9" t="str">
+        <f ca="1"/>
+        <v>Midsummer Day</v>
+      </c>
+      <c r="I9" s="4">
+        <f ca="1"/>
+        <v>44004</v>
+      </c>
+      <c r="J9">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -849,8 +905,22 @@
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="5">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="H10" t="str">
+        <f ca="1"/>
+        <v>Back to School</v>
+      </c>
+      <c r="I10" s="4">
+        <f ca="1"/>
+        <v>44075</v>
+      </c>
+      <c r="J10">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -869,8 +939,22 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="5">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="H11" t="str">
+        <f ca="1"/>
+        <v>Halloween</v>
+      </c>
+      <c r="I11" s="4">
+        <f ca="1"/>
+        <v>44135</v>
+      </c>
+      <c r="J11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -930,11 +1014,11 @@
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" cm="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="H14:H22" ca="1">getTableCell("Holidays",G14,G15,G16)</f>
-        <v>43831</v>
+        <v>New Year</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -957,9 +1041,9 @@
       <c r="G15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="2">
-        <f ca="1"/>
-        <v>43875</v>
+      <c r="H15" s="2" t="str">
+        <f ca="1"/>
+        <v>Valentine Day</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -982,9 +1066,9 @@
       <c r="G16" s="6">
         <v>1</v>
       </c>
-      <c r="H16" s="2">
-        <f ca="1"/>
-        <v>43907</v>
+      <c r="H16" s="2" t="str">
+        <f ca="1"/>
+        <v>St Patrick Day</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1004,39 +1088,39 @@
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="H17" s="2">
-        <f ca="1"/>
-        <v>43910</v>
+      <c r="H17" s="2" t="str">
+        <f ca="1"/>
+        <v>Nowruz</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="2">
-        <f ca="1"/>
-        <v>43952</v>
+      <c r="H18" s="2" t="str">
+        <f ca="1"/>
+        <v>May Day</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="2">
-        <f ca="1"/>
-        <v>43974</v>
+      <c r="H19" s="2" t="str">
+        <f ca="1"/>
+        <v>Eid Al Fitr</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="2">
-        <f ca="1"/>
-        <v>44004</v>
+      <c r="H20" s="2" t="str">
+        <f ca="1"/>
+        <v>Midsummer Day</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="2">
-        <f ca="1"/>
-        <v>44075</v>
+      <c r="H21" s="2" t="str">
+        <f ca="1"/>
+        <v>Back to School</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="2">
-        <f ca="1"/>
-        <v>44135</v>
+      <c r="H22" s="2" t="str">
+        <f ca="1"/>
+        <v>Halloween</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
